--- a/da-excel/Adventure Works Inventory1.xlsx
+++ b/da-excel/Adventure Works Inventory1.xlsx
@@ -10310,27 +10310,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="15179a99-4cef-4bac-ab20-a4c03d7ec5db" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2aed4346-8012-4133-9837-e496d0f5c99a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Status xmlns="2aed4346-8012-4133-9837-e496d0f5c99a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006EAC3B332A2FD04E918F9FD72E2B30AC" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d6d948adb3d144107cfe4729b36cffcc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2aed4346-8012-4133-9837-e496d0f5c99a" xmlns:ns3="15179a99-4cef-4bac-ab20-a4c03d7ec5db" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9fbc5a941f941688c85ed9188582636e" ns2:_="" ns3:_="">
     <xsd:import namespace="2aed4346-8012-4133-9837-e496d0f5c99a"/>
@@ -10555,10 +10534,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="15179a99-4cef-4bac-ab20-a4c03d7ec5db" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2aed4346-8012-4133-9837-e496d0f5c99a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Status xmlns="2aed4346-8012-4133-9837-e496d0f5c99a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{785F06B9-BE0F-409F-B020-9DC4B81C5F8E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FAD69B5-9809-4B08-8F91-9B86FDACC759}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2aed4346-8012-4133-9837-e496d0f5c99a"/>
+    <ds:schemaRef ds:uri="15179a99-4cef-4bac-ab20-a4c03d7ec5db"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10575,20 +10586,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FAD69B5-9809-4B08-8F91-9B86FDACC759}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{785F06B9-BE0F-409F-B020-9DC4B81C5F8E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2aed4346-8012-4133-9837-e496d0f5c99a"/>
-    <ds:schemaRef ds:uri="15179a99-4cef-4bac-ab20-a4c03d7ec5db"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>